--- a/scrum/backlog.xlsx
+++ b/scrum/backlog.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51a78b1a4639faf3/HS2014/Fribourg/Advanced Software Engineering/Sourcecode/autotrade/scrum/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="4092"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="4095"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Backlog</t>
   </si>
@@ -78,6 +73,9 @@
   </si>
   <si>
     <t>Urs / Arun</t>
+  </si>
+  <si>
+    <t>Oli/Urs</t>
   </si>
 </sst>
 </file>
@@ -175,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,14 +396,14 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -487,6 +485,9 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -495,6 +496,9 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -503,6 +507,9 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -510,6 +517,9 @@
       </c>
       <c r="D11" t="s">
         <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/scrum/backlog.xlsx
+++ b/scrum/backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Backlog</t>
   </si>
@@ -75,7 +75,10 @@
     <t>Urs / Arun</t>
   </si>
   <si>
-    <t>Oli/Urs</t>
+    <t>Pictures</t>
+  </si>
+  <si>
+    <t>Urs/Arun</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +500,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -519,7 +522,18 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
